--- a/src/forms-data.xlsx
+++ b/src/forms-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repos\ITP-KI_Umfrage\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A5227-192D-4232-AD50-88128CF20A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183F9DF-956F-40CD-B769-EAB0905A5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
